--- a/ResultadoEleicoesDistritos/COIMBRA_PENACOVA.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_PENACOVA.xlsx
@@ -597,64 +597,64 @@
         <v>3872</v>
       </c>
       <c r="H2" t="n">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I2" t="n">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="J2" t="n">
-        <v>1596</v>
+        <v>1542</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>170</v>
+      </c>
+      <c r="T2" t="n">
+        <v>287</v>
+      </c>
+      <c r="U2" t="n">
+        <v>16</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2471</v>
+      </c>
+      <c r="W2" t="n">
         <v>3</v>
       </c>
-      <c r="R2" t="n">
-        <v>23</v>
-      </c>
-      <c r="S2" t="n">
-        <v>174</v>
-      </c>
-      <c r="T2" t="n">
-        <v>294</v>
-      </c>
-      <c r="U2" t="n">
-        <v>17</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2467</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
       <c r="X2" t="n">
-        <v>2496</v>
+        <v>2532</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
